--- a/data/Producao_Bibliografica_Egressos.xlsx
+++ b/data/Producao_Bibliografica_Egressos.xlsx
@@ -1496,7 +1496,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C304"/>
+  <dimension ref="A1:C293"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4614,15 +4614,15 @@
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>Matheus Almeida Gonçalves Pereira</t>
+          <t>Matheus Brum Domingues Dettmann</t>
         </is>
       </c>
       <c r="B208" t="n">
-        <v>2021</v>
+        <v>2023</v>
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>IV Encontro Fluminense de Teoria da História e Historiografia.O corpo gótico segundo Frankenstein (1831): entre a emotividade e a monstruosidade. 2021. (Seminário).</t>
+          <t>DETTMANN, M. B. D.. Escrever a história dos normandos no século XI: uma ação política. 2023. (Apresentação de Trabalho/Comunicação).</t>
         </is>
       </c>
     </row>
@@ -4633,11 +4633,11 @@
         </is>
       </c>
       <c r="B209" t="n">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>DETTMANN, M. B. D.. Escrever a história dos normandos no século XI: uma ação política. 2023. (Apresentação de Trabalho/Comunicação).</t>
+          <t>DETTMANN, M. B. D.. Ricardo, o destemido e a construção de alianças no século X e XI: uma Normandia dividida entre francos e escandinavos. 2022. (Apresentação de Trabalho/Comunicação).</t>
         </is>
       </c>
     </row>
@@ -4648,11 +4648,11 @@
         </is>
       </c>
       <c r="B210" t="n">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>DETTMANN, M. B. D.. Ricardo, o destemido e a construção de alianças no século X e XI: uma Normandia dividida entre francos e escandinavos. 2022. (Apresentação de Trabalho/Comunicação).</t>
+          <t>DETTMANN, M. B. D.. A ira dos normandos: o papel da raiva na obra de Dudo de Saint-Quentin, uma emoção escandinava ou franca?. 2021. (Apresentação de Trabalho/Comunicação).</t>
         </is>
       </c>
     </row>
@@ -4667,7 +4667,7 @@
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>DETTMANN, M. B. D.. A ira dos normandos: o papel da raiva na obra de Dudo de Saint-Quentin, uma emoção escandinava ou franca?. 2021. (Apresentação de Trabalho/Comunicação).</t>
+          <t>DETTMANN, M. B. D.. The normans and their friends from the north: the bonds of friendship between the Norman dinasty and the scandinavian world. 2021. (Apresentação de Trabalho/Simpósio).</t>
         </is>
       </c>
     </row>
@@ -4682,22 +4682,22 @@
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>DETTMANN, M. B. D.. The normans and their friends from the north: the bonds of friendship between the Norman dinasty and the scandinavian world. 2021. (Apresentação de Trabalho/Simpósio).</t>
+          <t>DETTMANN, M. B. D.. As relações normandas com árabes e bizantinos: um reflexo do contexto oriental ou uma herança da Normandia. 2021. (Apresentação de Trabalho/Congresso).</t>
         </is>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>Matheus Brum Domingues Dettmann</t>
+          <t>Matheus Teixeira Moretti</t>
         </is>
       </c>
       <c r="B213" t="n">
-        <v>2021</v>
+        <v>2024</v>
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>DETTMANN, M. B. D.. As relações normandas com árabes e bizantinos: um reflexo do contexto oriental ou uma herança da Normandia. 2021. (Apresentação de Trabalho/Congresso).</t>
+          <t>MORETTI, M. T.. Governar o céu, governar a terra: apropriações brunianas para a concepção de stasis. 2024. (Apresentação de Trabalho/Comunicação).</t>
         </is>
       </c>
     </row>
@@ -4708,11 +4708,11 @@
         </is>
       </c>
       <c r="B214" t="n">
-        <v>2024</v>
+        <v>2022</v>
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>MORETTI, M. T.. Governar o céu, governar a terra: apropriações brunianas para a concepção de stasis. 2024. (Apresentação de Trabalho/Comunicação).</t>
+          <t>MORETTI, M. T.. A cidade diante do tempo: notas de pesquisa em torno da experiência do tempo na História do Povo Florentino, de Leonardo Bruni. 2022. (Apresentação de Trabalho/Comunicação).</t>
         </is>
       </c>
     </row>
@@ -4723,26 +4723,26 @@
         </is>
       </c>
       <c r="B215" t="n">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>MORETTI, M. T.. A cidade diante do tempo: notas de pesquisa em torno da experiência do tempo na História do Povo Florentino, de Leonardo Bruni. 2022. (Apresentação de Trabalho/Comunicação).</t>
+          <t>MORETTI, M. T.. O tempo e a política nas Historiae de Leonardo Bruni. 2021. (Apresentação de Trabalho/Simpósio).</t>
         </is>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>Matheus Teixeira Moretti</t>
+          <t>Maíra Cristina Tomé Fonseca</t>
         </is>
       </c>
       <c r="B216" t="n">
-        <v>2021</v>
+        <v>2023</v>
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>MORETTI, M. T.. O tempo e a política nas Historiae de Leonardo Bruni. 2021. (Apresentação de Trabalho/Simpósio).</t>
+          <t>TOMÉ, Maíra.. Gênero e Crime: O caso dos 'Crimes do Agradinho' (Uberaba, MG - 1960). 2023. (Apresentação de Trabalho/Comunicação).</t>
         </is>
       </c>
     </row>
@@ -4753,11 +4753,11 @@
         </is>
       </c>
       <c r="B217" t="n">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>TOMÉ, Maíra.. Gênero e Crime: O caso dos 'Crimes do Agradinho' (Uberaba, MG - 1960). 2023. (Apresentação de Trabalho/Comunicação).</t>
+          <t>TOMÉ, Maíra.. ?As Criminosas da Rua Campos Sales?: Transgressão feminina e Justiça na Uberaba da década de 1960. 2022. (Apresentação de Trabalho/Comunicação).</t>
         </is>
       </c>
     </row>
@@ -4772,7 +4772,7 @@
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>TOMÉ, Maíra.. ?As Criminosas da Rua Campos Sales?: Transgressão feminina e Justiça na Uberaba da década de 1960. 2022. (Apresentação de Trabalho/Comunicação).</t>
+          <t>TOMÉ, Maíra.. A criminalidade feminina nos arquivos da justiça: o caso dos 'Crimes do Agradinho' (Uberaba - MG, década de 1960). 2022. (Apresentação de Trabalho/Comunicação).</t>
         </is>
       </c>
     </row>
@@ -4787,7 +4787,7 @@
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>TOMÉ, Maíra.. A criminalidade feminina nos arquivos da justiça: o caso dos 'Crimes do Agradinho' (Uberaba - MG, década de 1960). 2022. (Apresentação de Trabalho/Comunicação).</t>
+          <t>TOMÉ, Maíra.. Gênero e Crime: representações de mulheres criminosas na imprensa da década de 1960 (o caso dos ?Crimes do Agradinho?, Uberaba ? MG). 2022. (Apresentação de Trabalho/Simpósio).</t>
         </is>
       </c>
     </row>
@@ -4798,11 +4798,11 @@
         </is>
       </c>
       <c r="B220" t="n">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>TOMÉ, Maíra.. Gênero e Crime: representações de mulheres criminosas na imprensa da década de 1960 (o caso dos ?Crimes do Agradinho?, Uberaba ? MG). 2022. (Apresentação de Trabalho/Simpósio).</t>
+          <t>TOMÉ, Maíra.. 'Envenenadoras de Uberaba': as representações criadas pela imprensa dos anos 1960 sobre as mulheres dos 'Crimes do Agradinho'. 2021. (Apresentação de Trabalho/Simpósio).</t>
         </is>
       </c>
     </row>
@@ -4817,7 +4817,7 @@
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>TOMÉ, Maíra.. 'Envenenadoras de Uberaba': as representações criadas pela imprensa dos anos 1960 sobre as mulheres dos 'Crimes do Agradinho'. 2021. (Apresentação de Trabalho/Simpósio).</t>
+          <t>TOMÉ, Maíra.. Quando a mulher é ré: o caso dos 'Crimes do Agradinho' (Uberaba - MG, década de 1960). 2021. (Apresentação de Trabalho/Comunicação).</t>
         </is>
       </c>
     </row>
@@ -4832,29 +4832,29 @@
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>TOMÉ, Maíra.. Quando a mulher é ré: o caso dos 'Crimes do Agradinho' (Uberaba - MG, década de 1960). 2021. (Apresentação de Trabalho/Comunicação).</t>
+          <t>TOMÉ, Maíra.. ?De agrado também se morre?: violência feminina e o caso dos ?Crimes do Agradinho? (Uberaba ? MG, década de 1960). 2021. (Apresentação de Trabalho/Simpósio).</t>
         </is>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>Maíra Cristina Tomé Fonseca</t>
+          <t>Moisés Corrêa Fonseca da Silva</t>
         </is>
       </c>
       <c r="B223" t="n">
-        <v>2021</v>
+        <v>2024</v>
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>TOMÉ, Maíra.. ?De agrado também se morre?: violência feminina e o caso dos ?Crimes do Agradinho? (Uberaba ? MG, década de 1960). 2021. (Apresentação de Trabalho/Simpósio).</t>
+          <t>SILVA, M. C. F.. História da África como História Pública e História Pública como História da África: uma proposta dialética nas viradas da oficina da História. 2024. (Apresentação de Trabalho/Comunicação).</t>
         </is>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>Maíra Cristina Tomé Fonseca</t>
+          <t>Moisés Corrêa Fonseca da Silva</t>
         </is>
       </c>
       <c r="B224" t="n">
@@ -4862,62 +4862,59 @@
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>Encontro do GT História do Crime, da Polícia, das práticas de Justiça e suas Fontes - ANPUH RS.
-						2022. (Encontro).</t>
+          <t>SILVA, M. C. F.. São João Baptista de Ajudá: Uma Fortaleza na África Ocidental (sécs. XVIII e XIX). 2022. (Apresentação de Trabalho/Comunicação).</t>
         </is>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>Maíra Cristina Tomé Fonseca</t>
+          <t>Moisés Corrêa Fonseca da Silva</t>
         </is>
       </c>
       <c r="B225" t="n">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>X EPHIS (Encontro de Pesquisa em História - UFMG). 2022. (Congresso).</t>
+          <t>SILVA, M. C. F.. São João Baptista de Ajudá: Uma Fortaleza na África Ocidental (séculos XVIII-XIX). 2021. (Apresentação de Trabalho/Seminário).</t>
         </is>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>Maíra Cristina Tomé Fonseca</t>
+          <t>Moisés Corrêa Fonseca da Silva</t>
         </is>
       </c>
       <c r="B226" t="n">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>XVI Encontro Estadual de História - ANPUH-RS.
-						2022. (Encontro).</t>
+          <t>SILVA, M. C. F.. Disputas em Ajudá: São João Baptista. 2021. (Apresentação de Trabalho/Comunicação).</t>
         </is>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>Maíra Cristina Tomé Fonseca</t>
+          <t>Moisés Peixoto Soares</t>
         </is>
       </c>
       <c r="B227" t="n">
-        <v>2021</v>
+        <v>2024</v>
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>31° Simpósio Nacional de História: História, Verdade e Tecnologia.
-						2021. (Simpósio).</t>
+          <t>BEZERRA, NIELSON ROSA ;PEIXOTO, Moisés.. Escravidão e Narrativas de liberdade no Recôncavo da Guanabara. 2024. (Apresentação de Trabalho/Seminário).</t>
         </is>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>Maíra Cristina Tomé Fonseca</t>
+          <t>Moisés Peixoto Soares</t>
         </is>
       </c>
       <c r="B228" t="n">
@@ -4925,89 +4922,89 @@
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>III Seminário de Estudos Históricos da Universidade Federal do Paraná. 2021. (Seminário).</t>
+          <t>PEIXOTO, Moisés.; GUEDES, Roberto ; PAIVA, E. F. ; IVO, I. P. ; PAIVA, A. T. . Identificação e classificação de forros em fontes paroquiais, inventários e testamentos de Piedade de Iguaçu e Jacutinga, séculos XVIII e XIX. 2021. (Apresentação de Trabalho/Comunicação).</t>
         </is>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>Maíra Cristina Tomé Fonseca</t>
+          <t>Murillo Dias Winter</t>
         </is>
       </c>
       <c r="B229" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>IV Seminário Internacional Micro-História, Trajetórias e Imigração. 2021. (Seminário).</t>
+          <t>WINTER, Murillo Dias.. Esta tempestad de papeles impresos e infamantes: o liberalismo na imprensa da província Cisplatina da Revolução do Porto até a independência do Brasil (1821-1824). 2022. (Apresentação de Trabalho/Congresso).</t>
         </is>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>Maíra Cristina Tomé Fonseca</t>
+          <t>Murillo Dias Winter</t>
         </is>
       </c>
       <c r="B230" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>IX EPHIS (Encontro de Pesquisa em História - UFMG) - Alcances da História: Compreender e Transformar. 2021. (Congresso).</t>
+          <t>WINTER, Murillo Dias.. II Jornadas Internacionales de Historia del Mundo Atlántico en la Modernidad Temprana c.1500-1800. 2022. (Apresentação de Trabalho/Congresso).</t>
         </is>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>Maíra Cristina Tomé Fonseca</t>
+          <t>Murillo Dias Winter</t>
         </is>
       </c>
       <c r="B231" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>TOMÉ, Maíra.; OLIVEIRA, P. H. F. D. . Coordenação do Simpósio Temático "História do Crime e da Violência: atores e instituições" - X Semana de História da UFTM. 2021. (Outro).</t>
+          <t>WINTER, Murillo Dias.. O debate historiográfico na pesquisa e no ofício do historiador. 2022. (Apresentação de Trabalho/Conferência ou palestra).</t>
         </is>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>Moisés Corrêa Fonseca da Silva</t>
+          <t>Murillo Dias Winter</t>
         </is>
       </c>
       <c r="B232" t="n">
-        <v>2024</v>
+        <v>2021</v>
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>SILVA, M. C. F.. História da África como História Pública e História Pública como História da África: uma proposta dialética nas viradas da oficina da História. 2024. (Apresentação de Trabalho/Comunicação).</t>
+          <t>WINTER, Murillo Dias.. Imprensa e guerra: considerações sobre os impressos através das revoltas e dos confitosno Brasil (Primeira metade do século XIX). 2021. (Apresentação de Trabalho/Seminário).</t>
         </is>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>Moisés Corrêa Fonseca da Silva</t>
+          <t>Murillo Dias Winter</t>
         </is>
       </c>
       <c r="B233" t="n">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>SILVA, M. C. F.. São João Baptista de Ajudá: Uma Fortaleza na África Ocidental (sécs. XVIII e XIX). 2022. (Apresentação de Trabalho/Comunicação).</t>
+          <t>WINTER, Murillo Dias.. PAPEL DA GUERRA, DA COMUNICAÇÃO E DA CIRCULAÇÃO DA INFORMAÇÃO NO DESENVOLVIMENTO DE UMA ?EXPERIÊNCIA INSURGENTE? NO BRASIL (1817-1850)?.. 2021. (Apresentação de Trabalho/Simpósio).</t>
         </is>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>Moisés Corrêa Fonseca da Silva</t>
+          <t>Murillo Dias Winter</t>
         </is>
       </c>
       <c r="B234" t="n">
@@ -5015,217 +5012,217 @@
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>SILVA, M. C. F.. São João Baptista de Ajudá: Uma Fortaleza na África Ocidental (séculos XVIII-XIX). 2021. (Apresentação de Trabalho/Seminário).</t>
+          <t>WINTER, Murillo Dias.. Território e narrativas em disputa: os usos do passado na imprensa da Banda Oriental e província Cisplatina (1811-1828). 2021. (Apresentação de Trabalho/Congresso).</t>
         </is>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>Moisés Corrêa Fonseca da Silva</t>
+          <t>Mylena Pereira da Silva</t>
         </is>
       </c>
       <c r="B235" t="n">
-        <v>2021</v>
+        <v>2024</v>
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>SILVA, M. C. F.. Disputas em Ajudá: São João Baptista. 2021. (Apresentação de Trabalho/Comunicação).</t>
+          <t>SILVA, M. P.. Viagens ao oriente, viajantes e sua literatura. 2024. (Apresentação de Trabalho/Simpósio).</t>
         </is>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>Moisés Peixoto Soares</t>
+          <t>Mylena Pereira da Silva</t>
         </is>
       </c>
       <c r="B236" t="n">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>BEZERRA, NIELSON ROSA ;PEIXOTO, Moisés.. Escravidão e Narrativas de liberdade no Recôncavo da Guanabara. 2024. (Apresentação de Trabalho/Seminário).</t>
+          <t>SILVA, M. P.. Em nome de Allah: a redenção diplomática pós-cativeiro cristão na Argel setecentista. 2023. (Apresentação de Trabalho/Seminário).</t>
         </is>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>Moisés Peixoto Soares</t>
+          <t>Mylena Pereira da Silva</t>
         </is>
       </c>
       <c r="B237" t="n">
-        <v>2021</v>
+        <v>2023</v>
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>PEIXOTO, Moisés.; GUEDES, Roberto ; PAIVA, E. F. ; IVO, I. P. ; PAIVA, A. T. . Identificação e classificação de forros em fontes paroquiais, inventários e testamentos de Piedade de Iguaçu e Jacutinga, séculos XVIII e XIX. 2021. (Apresentação de Trabalho/Comunicação).</t>
+          <t>SILVA, M. P.. Em  nome de Allah: redenção diplomática pós-cativeiro cristão na Argel Setecentista. 2023. (Apresentação de Trabalho/Comunicação).</t>
         </is>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>Murillo Dias Winter</t>
+          <t>Mylena Pereira da Silva</t>
         </is>
       </c>
       <c r="B238" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>WINTER, Murillo Dias.. Esta tempestad de papeles impresos e infamantes: o liberalismo na imprensa da província Cisplatina da Revolução do Porto até a independência do Brasil (1821-1824). 2022. (Apresentação de Trabalho/Congresso).</t>
+          <t>SILVA, M. P.. Em nome de Allah: a redenção diplomática pós-cativeiro cristão na Argel setecentista. 2023. (Apresentação de Trabalho/Simpósio).</t>
         </is>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>Murillo Dias Winter</t>
+          <t>Mário Novaes César Rezende</t>
         </is>
       </c>
       <c r="B239" t="n">
-        <v>2022</v>
+        <v>2024</v>
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>WINTER, Murillo Dias.. II Jornadas Internacionales de Historia del Mundo Atlántico en la Modernidad Temprana c.1500-1800. 2022. (Apresentação de Trabalho/Congresso).</t>
+          <t>REZENDE, M. N. C.. Le Canard du Boyau (1915-1918): humor e resistência entre soldados franceses durante a Primeira Guerra Mundial. 2024. (Apresentação de Trabalho/Comunicação).</t>
         </is>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>Murillo Dias Winter</t>
+          <t>Natasha Augusto Barbosa</t>
         </is>
       </c>
       <c r="B240" t="n">
-        <v>2022</v>
+        <v>2024</v>
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>WINTER, Murillo Dias.. O debate historiográfico na pesquisa e no ofício do historiador. 2022. (Apresentação de Trabalho/Conferência ou palestra).</t>
+          <t>BARBOSA, N. A.. 'Se essa rua fosse minha eu mandava arborizar: história ambiental urbana na cidade do Rio de Janeiro. 2024. (Apresentação de Trabalho/Seminário).</t>
         </is>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>Murillo Dias Winter</t>
+          <t>Natasha Augusto Barbosa</t>
         </is>
       </c>
       <c r="B241" t="n">
-        <v>2021</v>
+        <v>2023</v>
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>WINTER, Murillo Dias.. Imprensa e guerra: considerações sobre os impressos através das revoltas e dos confitosno Brasil (Primeira metade do século XIX). 2021. (Apresentação de Trabalho/Seminário).</t>
+          <t>BARBOSA, N. A.. Arborização urbana voluntária: dinâmicas da natureza urbana no Rio de Janeiro. 2023. (Apresentação de Trabalho/Simpósio).</t>
         </is>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>Murillo Dias Winter</t>
+          <t>Natasha Augusto Barbosa</t>
         </is>
       </c>
       <c r="B242" t="n">
-        <v>2021</v>
+        <v>2023</v>
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>WINTER, Murillo Dias.. PAPEL DA GUERRA, DA COMUNICAÇÃO E DA CIRCULAÇÃO DA INFORMAÇÃO NO DESENVOLVIMENTO DE UMA ?EXPERIÊNCIA INSURGENTE? NO BRASIL (1817-1850)?.. 2021. (Apresentação de Trabalho/Simpósio).</t>
+          <t>BARBOSA, N. A.. ÁRVORES E CIDADE: A ARBORIZAÇÃO URBANA VOLUNTÁRIA NO RIO DE JANEIRO. 2023. (Apresentação de Trabalho/Comunicação).</t>
         </is>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>Murillo Dias Winter</t>
+          <t>Natasha Augusto Barbosa</t>
         </is>
       </c>
       <c r="B243" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>WINTER, Murillo Dias.. Território e narrativas em disputa: os usos do passado na imprensa da Banda Oriental e província Cisplatina (1811-1828). 2021. (Apresentação de Trabalho/Congresso).</t>
+          <t>BARBOSA, N. A.. Árvores urbanas: história ambiental e arborização na cidade do Rio de Janeiro (1992-2022). 2023. (Apresentação de Trabalho/Comunicação).</t>
         </is>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>Mylena Pereira da Silva</t>
+          <t>Natasha Augusto Barbosa</t>
         </is>
       </c>
       <c r="B244" t="n">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>SILVA, M. P.. Viagens ao oriente, viajantes e sua literatura. 2024. (Apresentação de Trabalho/Simpósio).</t>
+          <t>BARBOSA, N. A.. Árvores urbanas: história ambiental e arborização na cidade do Rio de Janeiro (1992-2022). 2023. (Apresentação de Trabalho/Comunicação).</t>
         </is>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>Mylena Pereira da Silva</t>
+          <t>Natasha Augusto Barbosa</t>
         </is>
       </c>
       <c r="B245" t="n">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>SILVA, M. P.. Em nome de Allah: a redenção diplomática pós-cativeiro cristão na Argel setecentista. 2023. (Apresentação de Trabalho/Seminário).</t>
+          <t>BARBOSA, N. A.. Grupos voluntários de arborização urbana: interação socioambiental na cidade do Rio de Janeiro (1992-2022). 2022. (Apresentação de Trabalho/Seminário).</t>
         </is>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>Mylena Pereira da Silva</t>
+          <t>Natasha Augusto Barbosa</t>
         </is>
       </c>
       <c r="B246" t="n">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>SILVA, M. P.. Em  nome de Allah: redenção diplomática pós-cativeiro cristão na Argel Setecentista. 2023. (Apresentação de Trabalho/Comunicação).</t>
+          <t>BARBOSA, N. A.; SEDREZ, L. F. ; Letícia Andrade Batista Silva . A favela?s strategies and dynamics  to respond to changes in its  urban ecosystem  Morro da Babilônia. 2022. (Apresentação de Trabalho/Outra).</t>
         </is>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>Mylena Pereira da Silva</t>
+          <t>Natasha Augusto Barbosa</t>
         </is>
       </c>
       <c r="B247" t="n">
-        <v>2023</v>
+        <v>2021</v>
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>SILVA, M. P.. Em nome de Allah: a redenção diplomática pós-cativeiro cristão na Argel setecentista. 2023. (Apresentação de Trabalho/Simpósio).</t>
+          <t>BARBOSA, N. A.. Favela e reflorestamento: história ambiental urbana e história oral nas transformações ambientais do Morro da Babilônia, Rio de Janeiro. 2021. (Apresentação de Trabalho/Simpósio).</t>
         </is>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>Mário Novaes César Rezende</t>
+          <t>Natasha Augusto Barbosa</t>
         </is>
       </c>
       <c r="B248" t="n">
-        <v>2024</v>
+        <v>2021</v>
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>REZENDE, M. N. C.. Le Canard du Boyau (1915-1918): humor e resistência entre soldados franceses durante a Primeira Guerra Mundial. 2024. (Apresentação de Trabalho/Comunicação).</t>
+          <t>BARBOSA, N. A.. Grupos voluntários de arborização urbana: sociedade e natureza na cidade do Rio de Janeiro 1992-2022. 2021. (Apresentação de Trabalho/Simpósio).</t>
         </is>
       </c>
     </row>
@@ -5236,11 +5233,11 @@
         </is>
       </c>
       <c r="B249" t="n">
-        <v>2024</v>
+        <v>2022</v>
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>BARBOSA, N. A.. 'Se essa rua fosse minha eu mandava arborizar: história ambiental urbana na cidade do Rio de Janeiro. 2024. (Apresentação de Trabalho/Seminário).</t>
+          <t>BARBOSA, N. A.. Grupos voluntários de arborização urbana: sociedade e natureza na cidade do Rio de Janeiro 1992-2022. 2021. (Apresentação de Trabalho/Simpósio).</t>
         </is>
       </c>
     </row>
@@ -5251,123 +5248,123 @@
         </is>
       </c>
       <c r="B250" t="n">
-        <v>2023</v>
+        <v>2021</v>
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>BARBOSA, N. A.. Arborização urbana voluntária: dinâmicas da natureza urbana no Rio de Janeiro. 2023. (Apresentação de Trabalho/Simpósio).</t>
+          <t>BARBOSA, N. A.; Letícia Andrade Batista Silva . Cidades nas Américas: Rio de Janeiro. 2021. (Apresentação de Trabalho/Comunicação).</t>
         </is>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>Natasha Augusto Barbosa</t>
+          <t>Paula Mello dos Santos</t>
         </is>
       </c>
       <c r="B251" t="n">
-        <v>2023</v>
+        <v>2021</v>
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>BARBOSA, N. A.. ÁRVORES E CIDADE: A ARBORIZAÇÃO URBANA VOLUNTÁRIA NO RIO DE JANEIRO. 2023. (Apresentação de Trabalho/Comunicação).</t>
+          <t>SANTOS, P. M.. 'Sempre o criei com amor de filho': Antonio Neto Reis e as alforrias por amor. 2021. (Apresentação de Trabalho/Comunicação).</t>
         </is>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>Natasha Augusto Barbosa</t>
+          <t>Paula Mello dos Santos</t>
         </is>
       </c>
       <c r="B252" t="n">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>BARBOSA, N. A.. Árvores urbanas: história ambiental e arborização na cidade do Rio de Janeiro (1992-2022). 2023. (Apresentação de Trabalho/Comunicação).</t>
+          <t>SANTOS, P. M.. 'Sempre o criei com amor de filho': amor e alforrias no Rio de Janeiro setecentista (Candelária, 1700-1740). 2021. (Apresentação de Trabalho/Comunicação).</t>
         </is>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>Natasha Augusto Barbosa</t>
+          <t>Rafael do Nascimento Souza Brasil</t>
         </is>
       </c>
       <c r="B253" t="n">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>BARBOSA, N. A.. Árvores urbanas: história ambiental e arborização na cidade do Rio de Janeiro (1992-2022). 2023. (Apresentação de Trabalho/Comunicação).</t>
+          <t>BRASIL, R. N. S.. Cinema e Ditadura. 2024. (Apresentação de Trabalho/Conferência ou palestra).</t>
         </is>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>Natasha Augusto Barbosa</t>
+          <t>Rafael do Nascimento Souza Brasil</t>
         </is>
       </c>
       <c r="B254" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>BARBOSA, N. A.. Grupos voluntários de arborização urbana: interação socioambiental na cidade do Rio de Janeiro (1992-2022). 2022. (Apresentação de Trabalho/Seminário).</t>
+          <t>BRASIL, RAFAEL. Cinema em Arraial: curtas. 2023. (Apresentação de Trabalho/Conferência ou palestra).</t>
         </is>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>Natasha Augusto Barbosa</t>
+          <t>Rafael do Nascimento Souza Brasil</t>
         </is>
       </c>
       <c r="B255" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t>BARBOSA, N. A.; SEDREZ, L. F. ; Letícia Andrade Batista Silva . A favela?s strategies and dynamics  to respond to changes in its  urban ecosystem  Morro da Babilônia. 2022. (Apresentação de Trabalho/Outra).</t>
+          <t>BRASIL, R. N. S.. Cinema no Campinho. 2023. (Apresentação de Trabalho/Outra).</t>
         </is>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>Natasha Augusto Barbosa</t>
+          <t>Rafael do Nascimento Souza Brasil</t>
         </is>
       </c>
       <c r="B256" t="n">
-        <v>2021</v>
+        <v>2023</v>
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>BARBOSA, N. A.. Favela e reflorestamento: história ambiental urbana e história oral nas transformações ambientais do Morro da Babilônia, Rio de Janeiro. 2021. (Apresentação de Trabalho/Simpósio).</t>
+          <t>BRASIL, R. N. S.. Roda de conversa sobre o filme 'O menino e o mundo'. 2023. (Apresentação de Trabalho/Conferência ou palestra).</t>
         </is>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>Natasha Augusto Barbosa</t>
+          <t>Rafael do Nascimento Souza Brasil</t>
         </is>
       </c>
       <c r="B257" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>BARBOSA, N. A.. Grupos voluntários de arborização urbana: sociedade e natureza na cidade do Rio de Janeiro 1992-2022. 2021. (Apresentação de Trabalho/Simpósio).</t>
+          <t>BRASIL, R. N. S.; PIMENTEL, I. I. . A importância de repensar as normas de gênero: uma roda de conversa sobre masculinidade hegemônica. 2022. (Apresentação de Trabalho/Conferência ou palestra).</t>
         </is>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>Natasha Augusto Barbosa</t>
+          <t>Raquel Marques Soares</t>
         </is>
       </c>
       <c r="B258" t="n">
@@ -5375,14 +5372,14 @@
       </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t>BARBOSA, N. A.. Grupos voluntários de arborização urbana: sociedade e natureza na cidade do Rio de Janeiro 1992-2022. 2021. (Apresentação de Trabalho/Simpósio).</t>
+          <t>MARQUES, R.. ?Solo algunos pueden hablar con libertad?: censura e repressão à imprensa chilena através de Solidaridad (1976-1990). 2022. (Apresentação de Trabalho/Comunicação).</t>
         </is>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>Natasha Augusto Barbosa</t>
+          <t>Raquel Marques Soares</t>
         </is>
       </c>
       <c r="B259" t="n">
@@ -5390,14 +5387,14 @@
       </c>
       <c r="C259" t="inlineStr">
         <is>
-          <t>BARBOSA, N. A.; Letícia Andrade Batista Silva . Cidades nas Américas: Rio de Janeiro. 2021. (Apresentação de Trabalho/Comunicação).</t>
+          <t>MARQUES, R.. ?Façamos um boletim!?: o papel desempenhado por Solidaridad durante a ditadura militar chilena (1976-1990). 2021. (Apresentação de Trabalho/Comunicação).</t>
         </is>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>Paula Mello dos Santos</t>
+          <t>Raquel Marques Soares</t>
         </is>
       </c>
       <c r="B260" t="n">
@@ -5405,59 +5402,59 @@
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t>SANTOS, P. M.. 'Sempre o criei com amor de filho': Antonio Neto Reis e as alforrias por amor. 2021. (Apresentação de Trabalho/Comunicação).</t>
+          <t>MARQUES, R.. Disputas e Resistências no boletim católico Solidaridad (1976-1990). 2021. (Apresentação de Trabalho/Comunicação).</t>
         </is>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>Paula Mello dos Santos</t>
+          <t>Rebecca Hodesh Muniz de Souza Rozas</t>
         </is>
       </c>
       <c r="B261" t="n">
-        <v>2021</v>
+        <v>2023</v>
       </c>
       <c r="C261" t="inlineStr">
         <is>
-          <t>SANTOS, P. M.. 'Sempre o criei com amor de filho': amor e alforrias no Rio de Janeiro setecentista (Candelária, 1700-1740). 2021. (Apresentação de Trabalho/Comunicação).</t>
+          <t>ROZAS, R. H. M. S.. Remediações de Filmes Etnográficos e do Cinema Clássico Hollywoodiano em Tabu (Miguel Gomes, 2012) e as Dinâmicas da Memória Cultural. Seminário de Investigação em História Contemporânea: arquivo, arte, propaganda e censura, FLUP, Porto, Portugal. 2023. (Apresentação de Trabalho/Comunicação).</t>
         </is>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>Paula Mello dos Santos</t>
+          <t>Rebecca Hodesh Muniz de Souza Rozas</t>
         </is>
       </c>
       <c r="B262" t="n">
-        <v>2021</v>
+        <v>2023</v>
       </c>
       <c r="C262" t="inlineStr">
         <is>
-          <t>SANTOS, P. M.; CARVALHO, E. F. ; BARBOSA, M. . Entre Reinos e Ultramares: redes sociais, trajetórias e fios narrativos nas monarquias modernas (séculos XVI-XIX). 2021. (Congresso).</t>
+          <t>ROZAS, R. H. M. S.. Pensar a Nostalgia: estrutura retórica e abordagens teórico-metodológicas. XI Encontro de Pesquisa em História, UFMG. 2023. (Apresentação de Trabalho/Comunicação).</t>
         </is>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>Rafael do Nascimento Souza Brasil</t>
+          <t>Rebecca Hodesh Muniz de Souza Rozas</t>
         </is>
       </c>
       <c r="B263" t="n">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="C263" t="inlineStr">
         <is>
-          <t>BRASIL, R. N. S.. Cinema e Ditadura. 2024. (Apresentação de Trabalho/Conferência ou palestra).</t>
+          <t>ROZAS, R. H. M. S.. Crise e Nostalgia: modos de mediação do passado colonial português durante a crise da Zona Euro (2007-2017). 32º Simpósio Nacional de História da ANPUH, São Luís (MA). 2023. (Apresentação de Trabalho/Comunicação).</t>
         </is>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>Rafael do Nascimento Souza Brasil</t>
+          <t>Rebecca Hodesh Muniz de Souza Rozas</t>
         </is>
       </c>
       <c r="B264" t="n">
@@ -5465,74 +5462,74 @@
       </c>
       <c r="C264" t="inlineStr">
         <is>
-          <t>BRASIL, RAFAEL. Cinema em Arraial: curtas. 2023. (Apresentação de Trabalho/Conferência ou palestra).</t>
+          <t>ROZAS, R. H. M. S.. Crise, Austeridade e Nostalgia Colonial em Portugal (2007-2017). I Jornada de Estudos em Pensamento Crítico Contemporâneo, PPGHIS/UFRJ. 2023. (Apresentação de Trabalho/Comunicação).</t>
         </is>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>Rafael do Nascimento Souza Brasil</t>
+          <t>Rebecca Hodesh Muniz de Souza Rozas</t>
         </is>
       </c>
       <c r="B265" t="n">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="C265" t="inlineStr">
         <is>
-          <t>BRASIL, R. N. S.. Cinema no Campinho. 2023. (Apresentação de Trabalho/Outra).</t>
+          <t>ROZAS, R. H. M. S.. Tabu (Miguel Gomes, 2012): Nostalgia Colonial e o Cinema Português de Austeridade. VIII Congresso da Associação Portuguesa de Antropologia. Universidade de Évora, Portugal. 2022. (Apresentação de Trabalho/Comunicação).</t>
         </is>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>Rafael do Nascimento Souza Brasil</t>
+          <t>Rebecca Hodesh Muniz de Souza Rozas</t>
         </is>
       </c>
       <c r="B266" t="n">
-        <v>2023</v>
+        <v>2021</v>
       </c>
       <c r="C266" t="inlineStr">
         <is>
-          <t>BRASIL, R. N. S.. Roda de conversa sobre o filme 'O menino e o mundo'. 2023. (Apresentação de Trabalho/Conferência ou palestra).</t>
+          <t>ROZAS, R. H. M. S.. Os Meios e as Imagens da Nostalgia Colonial. X Seminário des Alunes do PPGAS/MN/UFRJ. 2021. (Apresentação de Trabalho/Comunicação).</t>
         </is>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>Rafael do Nascimento Souza Brasil</t>
+          <t>Rodrigo Franco da Costa</t>
         </is>
       </c>
       <c r="B267" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C267" t="inlineStr">
         <is>
-          <t>BRASIL, R. N. S.; PIMENTEL, I. I. . A importância de repensar as normas de gênero: uma roda de conversa sobre masculinidade hegemônica. 2022. (Apresentação de Trabalho/Conferência ou palestra).</t>
+          <t>COSTA, Rodrigo Franco da.. Pela boca de Cipião: argumentos ciceronianos na cultura escrita portuguesa do século XVII. 2023. (Apresentação de Trabalho/Conferência ou palestra).</t>
         </is>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>Raquel Marques Soares</t>
+          <t>Rodrigo Maia Monteiro</t>
         </is>
       </c>
       <c r="B268" t="n">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="C268" t="inlineStr">
         <is>
-          <t>MARQUES, R.. ?Solo algunos pueden hablar con libertad?: censura e repressão à imprensa chilena através de Solidaridad (1976-1990). 2022. (Apresentação de Trabalho/Comunicação).</t>
+          <t>MONTEIRO, R. M.. Os Laboratórios Policiais da Era Vargas sob o olhar de Gramsci: que aparelhos são esses?. 2021. (Apresentação de Trabalho/Comunicação).</t>
         </is>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>Raquel Marques Soares</t>
+          <t>Thiago Torres Medeiros da Silva</t>
         </is>
       </c>
       <c r="B269" t="n">
@@ -5540,29 +5537,29 @@
       </c>
       <c r="C269" t="inlineStr">
         <is>
-          <t>MARQUES, R.. ?Façamos um boletim!?: o papel desempenhado por Solidaridad durante a ditadura militar chilena (1976-1990). 2021. (Apresentação de Trabalho/Comunicação).</t>
+          <t>MEDEIROS, Thiago T.. O crime de homicídio e a polícia carioca na primeiras décadas republicanas. 2021. (Apresentação de Trabalho/Conferência ou palestra).</t>
         </is>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>Raquel Marques Soares</t>
+          <t>Thompson Clímaco Alves</t>
         </is>
       </c>
       <c r="B270" t="n">
-        <v>2021</v>
+        <v>2024</v>
       </c>
       <c r="C270" t="inlineStr">
         <is>
-          <t>MARQUES, R.. Disputas e Resistências no boletim católico Solidaridad (1976-1990). 2021. (Apresentação de Trabalho/Comunicação).</t>
+          <t>CLÍMACO,Thompson. Racismo, Direitos Humanos e mundos do trabalho no Brasil: interseções e debates. 2024. (Apresentação de Trabalho/Conferência ou palestra).</t>
         </is>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>Rebecca Hodesh Muniz de Souza Rozas</t>
+          <t>Thompson Clímaco Alves</t>
         </is>
       </c>
       <c r="B271" t="n">
@@ -5570,14 +5567,14 @@
       </c>
       <c r="C271" t="inlineStr">
         <is>
-          <t>ROZAS, R. H. M. S.. Remediações de Filmes Etnográficos e do Cinema Clássico Hollywoodiano em Tabu (Miguel Gomes, 2012) e as Dinâmicas da Memória Cultural. Seminário de Investigação em História Contemporânea: arquivo, arte, propaganda e censura, FLUP, Porto, Portugal. 2023. (Apresentação de Trabalho/Comunicação).</t>
+          <t>CLÍMACO,Thompson. Palmares:  O povo negro pode dançar. 2023. (Apresentação de Trabalho/Conferência ou palestra).</t>
         </is>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>Rebecca Hodesh Muniz de Souza Rozas</t>
+          <t>Thompson Clímaco Alves</t>
         </is>
       </c>
       <c r="B272" t="n">
@@ -5585,14 +5582,14 @@
       </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t>ROZAS, R. H. M. S.. Pensar a Nostalgia: estrutura retórica e abordagens teórico-metodológicas. XI Encontro de Pesquisa em História, UFMG. 2023. (Apresentação de Trabalho/Comunicação).</t>
+          <t>CLÍMACO,Thompson. Volta Redonda Situada no Cenário Nacional: CSN, classe trabalhadora e racismo. 2023. (Apresentação de Trabalho/Conferência ou palestra).</t>
         </is>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>Rebecca Hodesh Muniz de Souza Rozas</t>
+          <t>Thompson Clímaco Alves</t>
         </is>
       </c>
       <c r="B273" t="n">
@@ -5600,44 +5597,44 @@
       </c>
       <c r="C273" t="inlineStr">
         <is>
-          <t>ROZAS, R. H. M. S.. Crise e Nostalgia: modos de mediação do passado colonial português durante a crise da Zona Euro (2007-2017). 32º Simpósio Nacional de História da ANPUH, São Luís (MA). 2023. (Apresentação de Trabalho/Comunicação).</t>
+          <t>CLÍMACO,Thompson. Desenvolvimentismo e os/as trabalhadores/as negros/as no Brasil. 2023. (Apresentação de Trabalho/Conferência ou palestra).</t>
         </is>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>Rebecca Hodesh Muniz de Souza Rozas</t>
+          <t>Thompson Clímaco Alves</t>
         </is>
       </c>
       <c r="B274" t="n">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="C274" t="inlineStr">
         <is>
-          <t>ROZAS, R. H. M. S.. Crise, Austeridade e Nostalgia Colonial em Portugal (2007-2017). I Jornada de Estudos em Pensamento Crítico Contemporâneo, PPGHIS/UFRJ. 2023. (Apresentação de Trabalho/Comunicação).</t>
+          <t>CLÍMACO,Thompson. Das lavouras à ?Pittsburgh Fluminense?: pós-abolição, raça e classe trabalhadora em Barra Mansa-RJ (1888-1937). 2022. (Apresentação de Trabalho/Seminário).</t>
         </is>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>Rebecca Hodesh Muniz de Souza Rozas</t>
+          <t>Thompson Clímaco Alves</t>
         </is>
       </c>
       <c r="B275" t="n">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="C275" t="inlineStr">
         <is>
-          <t>ROZAS, R. H. M. S.. Tabu (Miguel Gomes, 2012): Nostalgia Colonial e o Cinema Português de Austeridade. VIII Congresso da Associação Portuguesa de Antropologia. Universidade de Évora, Portugal. 2022. (Apresentação de Trabalho/Comunicação).</t>
+          <t>CLÍMACO,Thompson. Classe trabalhadora negra e historiografia no Brasil. 2021. (Apresentação de Trabalho/Conferência ou palestra).</t>
         </is>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>Rebecca Hodesh Muniz de Souza Rozas</t>
+          <t>Thompson Clímaco Alves</t>
         </is>
       </c>
       <c r="B276" t="n">
@@ -5645,149 +5642,149 @@
       </c>
       <c r="C276" t="inlineStr">
         <is>
-          <t>ROZAS, R. H. M. S.. Os Meios e as Imagens da Nostalgia Colonial. X Seminário des Alunes do PPGAS/MN/UFRJ. 2021. (Apresentação de Trabalho/Comunicação).</t>
+          <t>CLÍMACO,Thompson. Experiências e reivindicações de padeiros e trabalhadores do comércio no município de Barra Mansa (1920-1927)'. 2021. (Apresentação de Trabalho/Comunicação).</t>
         </is>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>Rodrigo Franco da Costa</t>
+          <t>Thompson Clímaco Alves</t>
         </is>
       </c>
       <c r="B277" t="n">
-        <v>2023</v>
+        <v>2021</v>
       </c>
       <c r="C277" t="inlineStr">
         <is>
-          <t>COSTA, Rodrigo Franco da.. Pela boca de Cipião: argumentos ciceronianos na cultura escrita portuguesa do século XVII. 2023. (Apresentação de Trabalho/Conferência ou palestra).</t>
+          <t>CLÍMACO,Thompson. Classe trabalhadora e relações raciais no município de Barra Mansa (1920-1940). 2021. (Apresentação de Trabalho/Comunicação).</t>
         </is>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>Rodrigo Maia Monteiro</t>
+          <t>Valéria Dorneles Fernandes</t>
         </is>
       </c>
       <c r="B278" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C278" t="inlineStr">
         <is>
-          <t>MONTEIRO, R. M.. Os Laboratórios Policiais da Era Vargas sob o olhar de Gramsci: que aparelhos são esses?. 2021. (Apresentação de Trabalho/Comunicação).</t>
+          <t>FERNANDES, VALÉRIA DORNELES. È preciso conhece-lo para melhor para melhor destrui-lo: nuvens de gafanhotos na América do Sul (1897-1952). 2022. (Apresentação de Trabalho/Conferência ou palestra).</t>
         </is>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>Thayná Fuly Garcia</t>
+          <t>Vanessa de Mendonça Rodrigues dos Santos</t>
         </is>
       </c>
       <c r="B279" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C279" t="inlineStr">
         <is>
-          <t>Ceará Científico 2022. As relações sócio-políticas em tempos de seca: uma análise das consequências históricas da construção do açude Pereira de Miranda através da imprensa brasileira (1950-1990). 2022. (Feira).</t>
+          <t>MENDONÇA, Vanessa de. O processo de construção das Basílicas de São Pedro e de São Paulo: semelhanças e diferenças na instituição de dois sítios sagrados cristãos na Antiguidade (Roma, séc. IV). 2023. (Apresentação de Trabalho/Comunicação).</t>
         </is>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>Thiago Torres Medeiros da Silva</t>
+          <t>Vanessa de Mendonça Rodrigues dos Santos</t>
         </is>
       </c>
       <c r="B280" t="n">
-        <v>2021</v>
+        <v>2023</v>
       </c>
       <c r="C280" t="inlineStr">
         <is>
-          <t>MEDEIROS, Thiago T.. O crime de homicídio e a polícia carioca na primeiras décadas republicanas. 2021. (Apresentação de Trabalho/Conferência ou palestra).</t>
+          <t>MENDONÇA, Vanessa de. As fórmulas funerárias nos enterramentos ad sanctos durante a Antiguidade tardia: o caso das basílicas de Pedro e de Paulo em Roma (sécs. IV ? VI d.C.). 2023. (Apresentação de Trabalho/Comunicação).</t>
         </is>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>Thompson Clímaco Alves</t>
+          <t>Vanessa de Mendonça Rodrigues dos Santos</t>
         </is>
       </c>
       <c r="B281" t="n">
-        <v>2024</v>
+        <v>2022</v>
       </c>
       <c r="C281" t="inlineStr">
         <is>
-          <t>CLÍMACO,Thompson. Racismo, Direitos Humanos e mundos do trabalho no Brasil: interseções e debates. 2024. (Apresentação de Trabalho/Conferência ou palestra).</t>
+          <t>SANTOS, V. M. R.. A devoção a Pedro e Paulo na Cidade de Roma: a Dupla Apostólica por uma perspectiva epigráfica. 2022. (Apresentação de Trabalho/Comunicação).</t>
         </is>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>Thompson Clímaco Alves</t>
+          <t>Vanessa de Mendonça Rodrigues dos Santos</t>
         </is>
       </c>
       <c r="B282" t="n">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="C282" t="inlineStr">
         <is>
-          <t>CLÍMACO,Thompson. Palmares:  O povo negro pode dançar. 2023. (Apresentação de Trabalho/Conferência ou palestra).</t>
+          <t>SANTOS, V. M. R.. Enterramentos AD SANCTOS: continuidades e rupturas nos espaços funerários cristãos Na Antiguidade Tardia. 2022. (Apresentação de Trabalho/Comunicação).</t>
         </is>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>Thompson Clímaco Alves</t>
+          <t>Vanessa de Mendonça Rodrigues dos Santos</t>
         </is>
       </c>
       <c r="B283" t="n">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="C283" t="inlineStr">
         <is>
-          <t>CLÍMACO,Thompson. Volta Redonda Situada no Cenário Nacional: CSN, classe trabalhadora e racismo. 2023. (Apresentação de Trabalho/Conferência ou palestra).</t>
+          <t>SANTOS, V. M. R.. Menstruação, religião e o mundo contemporâneo. 2022. (Apresentação de Trabalho/Conferência ou palestra).</t>
         </is>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>Thompson Clímaco Alves</t>
+          <t>Vanessa de Mendonça Rodrigues dos Santos</t>
         </is>
       </c>
       <c r="B284" t="n">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="C284" t="inlineStr">
         <is>
-          <t>CLÍMACO,Thompson. Desenvolvimentismo e os/as trabalhadores/as negros/as no Brasil. 2023. (Apresentação de Trabalho/Conferência ou palestra).</t>
+          <t>SANTOS, V. M. R.. A materialização da comunidade de fé e a Cidade Antiga (Roma, séculos III-VII).. 2022. (Apresentação de Trabalho/Conferência ou palestra).</t>
         </is>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>Thompson Clímaco Alves</t>
+          <t>Vanessa de Mendonça Rodrigues dos Santos</t>
         </is>
       </c>
       <c r="B285" t="n">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="C285" t="inlineStr">
         <is>
-          <t>CLÍMACO,Thompson. Das lavouras à ?Pittsburgh Fluminense?: pós-abolição, raça e classe trabalhadora em Barra Mansa-RJ (1888-1937). 2022. (Apresentação de Trabalho/Seminário).</t>
+          <t>SANTOS, V. M. R.. Carne Santa: os mártires e a formação dos espaços sagrados cristãos na antiguidade. 2021. (Apresentação de Trabalho/Conferência ou palestra).</t>
         </is>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>Thompson Clímaco Alves</t>
+          <t>Vanessa de Mendonça Rodrigues dos Santos</t>
         </is>
       </c>
       <c r="B286" t="n">
@@ -5795,14 +5792,14 @@
       </c>
       <c r="C286" t="inlineStr">
         <is>
-          <t>CLÍMACO,Thompson. Classe trabalhadora negra e historiografia no Brasil. 2021. (Apresentação de Trabalho/Conferência ou palestra).</t>
+          <t>SANTOS, V. M. R.. O Bom Pastor nas catacumbas de Roma: a arte cristã e os sentimentos sobre a morte. 2021. (Apresentação de Trabalho/Conferência ou palestra).</t>
         </is>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>Thompson Clímaco Alves</t>
+          <t>Vanessa de Mendonça Rodrigues dos Santos</t>
         </is>
       </c>
       <c r="B287" t="n">
@@ -5810,260 +5807,95 @@
       </c>
       <c r="C287" t="inlineStr">
         <is>
-          <t>CLÍMACO,Thompson. Experiências e reivindicações de padeiros e trabalhadores do comércio no município de Barra Mansa (1920-1927)'. 2021. (Apresentação de Trabalho/Comunicação).</t>
+          <t>SANTOS, V. M. R.. As fontes epigráficas: abordagens interdisciplinares nos estudos sobre Cristianismo Antigo. 2021. (Apresentação de Trabalho/Conferência ou palestra).</t>
         </is>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>Thompson Clímaco Alves</t>
+          <t>Vicente Gil da Silva</t>
         </is>
       </c>
       <c r="B288" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C288" t="inlineStr">
         <is>
-          <t>CLÍMACO,Thompson. Classe trabalhadora e relações raciais no município de Barra Mansa (1920-1940). 2021. (Apresentação de Trabalho/Comunicação).</t>
+          <t>Vicente Gil da Silva. A Entente Internationale Anticommuniste (EIA) e o Itamaraty (1924-1938). 2022. (Apresentação de Trabalho/Seminário).</t>
         </is>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>Valéria Dorneles Fernandes</t>
+          <t>Vicente Gil da Silva</t>
         </is>
       </c>
       <c r="B289" t="n">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="C289" t="inlineStr">
         <is>
-          <t>FERNANDES, VALÉRIA DORNELES. È preciso conhece-lo para melhor para melhor destrui-lo: nuvens de gafanhotos na América do Sul (1897-1952). 2022. (Apresentação de Trabalho/Conferência ou palestra).</t>
+          <t>Vicente Gil da Silva. Operações encobertas dos Estados Unidos na América Latina (1954-1964). 2021. (Apresentação de Trabalho/Comunicação).</t>
         </is>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>Vanessa de Mendonça Rodrigues dos Santos</t>
+          <t>Vinner Stutz de Oliveira</t>
         </is>
       </c>
       <c r="B290" t="n">
-        <v>2023</v>
+        <v>2021</v>
       </c>
       <c r="C290" t="inlineStr">
         <is>
-          <t>MENDONÇA, Vanessa de. O processo de construção das Basílicas de São Pedro e de São Paulo: semelhanças e diferenças na instituição de dois sítios sagrados cristãos na Antiguidade (Roma, séc. IV). 2023. (Apresentação de Trabalho/Comunicação).</t>
+          <t>OLIVEIRA, V. S.. Relatos sobre o processo da instalação daIgreja Presbiteriana do Sana: da imigração suíça e alemã para a Serra Fluminense até as primeiras experiências protestantes na região. 2021. (Apresentação de Trabalho/Comunicação).</t>
         </is>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>Vanessa de Mendonça Rodrigues dos Santos</t>
+          <t>Vinner Stutz de Oliveira</t>
         </is>
       </c>
       <c r="B291" t="n">
-        <v>2023</v>
+        <v>2021</v>
       </c>
       <c r="C291" t="inlineStr">
         <is>
-          <t>MENDONÇA, Vanessa de. As fórmulas funerárias nos enterramentos ad sanctos durante a Antiguidade tardia: o caso das basílicas de Pedro e de Paulo em Roma (sécs. IV ? VI d.C.). 2023. (Apresentação de Trabalho/Comunicação).</t>
+          <t>OLIVEIRA, V. S.. Relatos em espaços e tempos do processo da instalação da Igreja Presbiteriana do Sana: da imigração suíça e alemã para a serra fluminense até as primeiras experiências protestantes na região. 2021. (Apresentação de Trabalho/Comunicação).</t>
         </is>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>Vanessa de Mendonça Rodrigues dos Santos</t>
+          <t>Yasmin Getirana Gonçalves Vicente</t>
         </is>
       </c>
       <c r="B292" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C292" t="inlineStr">
         <is>
-          <t>SANTOS, V. M. R.. A devoção a Pedro e Paulo na Cidade de Roma: a Dupla Apostólica por uma perspectiva epigráfica. 2022. (Apresentação de Trabalho/Comunicação).</t>
+          <t>GETIRANA, Y.. Moradia para trabalhadoras doméstica. 2023. (Apresentação de Trabalho/Comunicação).</t>
         </is>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>Vanessa de Mendonça Rodrigues dos Santos</t>
+          <t>Yasmin Getirana Gonçalves Vicente</t>
         </is>
       </c>
       <c r="B293" t="n">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="C293" t="inlineStr">
-        <is>
-          <t>SANTOS, V. M. R.. Enterramentos AD SANCTOS: continuidades e rupturas nos espaços funerários cristãos Na Antiguidade Tardia. 2022. (Apresentação de Trabalho/Comunicação).</t>
-        </is>
-      </c>
-    </row>
-    <row r="294">
-      <c r="A294" t="inlineStr">
-        <is>
-          <t>Vanessa de Mendonça Rodrigues dos Santos</t>
-        </is>
-      </c>
-      <c r="B294" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C294" t="inlineStr">
-        <is>
-          <t>SANTOS, V. M. R.. Menstruação, religião e o mundo contemporâneo. 2022. (Apresentação de Trabalho/Conferência ou palestra).</t>
-        </is>
-      </c>
-    </row>
-    <row r="295">
-      <c r="A295" t="inlineStr">
-        <is>
-          <t>Vanessa de Mendonça Rodrigues dos Santos</t>
-        </is>
-      </c>
-      <c r="B295" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C295" t="inlineStr">
-        <is>
-          <t>SANTOS, V. M. R.. A materialização da comunidade de fé e a Cidade Antiga (Roma, séculos III-VII).. 2022. (Apresentação de Trabalho/Conferência ou palestra).</t>
-        </is>
-      </c>
-    </row>
-    <row r="296">
-      <c r="A296" t="inlineStr">
-        <is>
-          <t>Vanessa de Mendonça Rodrigues dos Santos</t>
-        </is>
-      </c>
-      <c r="B296" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C296" t="inlineStr">
-        <is>
-          <t>SANTOS, V. M. R.. Carne Santa: os mártires e a formação dos espaços sagrados cristãos na antiguidade. 2021. (Apresentação de Trabalho/Conferência ou palestra).</t>
-        </is>
-      </c>
-    </row>
-    <row r="297">
-      <c r="A297" t="inlineStr">
-        <is>
-          <t>Vanessa de Mendonça Rodrigues dos Santos</t>
-        </is>
-      </c>
-      <c r="B297" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C297" t="inlineStr">
-        <is>
-          <t>SANTOS, V. M. R.. O Bom Pastor nas catacumbas de Roma: a arte cristã e os sentimentos sobre a morte. 2021. (Apresentação de Trabalho/Conferência ou palestra).</t>
-        </is>
-      </c>
-    </row>
-    <row r="298">
-      <c r="A298" t="inlineStr">
-        <is>
-          <t>Vanessa de Mendonça Rodrigues dos Santos</t>
-        </is>
-      </c>
-      <c r="B298" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C298" t="inlineStr">
-        <is>
-          <t>SANTOS, V. M. R.. As fontes epigráficas: abordagens interdisciplinares nos estudos sobre Cristianismo Antigo. 2021. (Apresentação de Trabalho/Conferência ou palestra).</t>
-        </is>
-      </c>
-    </row>
-    <row r="299">
-      <c r="A299" t="inlineStr">
-        <is>
-          <t>Vicente Gil da Silva</t>
-        </is>
-      </c>
-      <c r="B299" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C299" t="inlineStr">
-        <is>
-          <t>Vicente Gil da Silva. A Entente Internationale Anticommuniste (EIA) e o Itamaraty (1924-1938). 2022. (Apresentação de Trabalho/Seminário).</t>
-        </is>
-      </c>
-    </row>
-    <row r="300">
-      <c r="A300" t="inlineStr">
-        <is>
-          <t>Vicente Gil da Silva</t>
-        </is>
-      </c>
-      <c r="B300" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C300" t="inlineStr">
-        <is>
-          <t>Vicente Gil da Silva. Operações encobertas dos Estados Unidos na América Latina (1954-1964). 2021. (Apresentação de Trabalho/Comunicação).</t>
-        </is>
-      </c>
-    </row>
-    <row r="301">
-      <c r="A301" t="inlineStr">
-        <is>
-          <t>Vinner Stutz de Oliveira</t>
-        </is>
-      </c>
-      <c r="B301" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C301" t="inlineStr">
-        <is>
-          <t>OLIVEIRA, V. S.. Relatos sobre o processo da instalação daIgreja Presbiteriana do Sana: da imigração suíça e alemã para a Serra Fluminense até as primeiras experiências protestantes na região. 2021. (Apresentação de Trabalho/Comunicação).</t>
-        </is>
-      </c>
-    </row>
-    <row r="302">
-      <c r="A302" t="inlineStr">
-        <is>
-          <t>Vinner Stutz de Oliveira</t>
-        </is>
-      </c>
-      <c r="B302" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C302" t="inlineStr">
-        <is>
-          <t>OLIVEIRA, V. S.. Relatos em espaços e tempos do processo da instalação da Igreja Presbiteriana do Sana: da imigração suíça e alemã para a serra fluminense até as primeiras experiências protestantes na região. 2021. (Apresentação de Trabalho/Comunicação).</t>
-        </is>
-      </c>
-    </row>
-    <row r="303">
-      <c r="A303" t="inlineStr">
-        <is>
-          <t>Yasmin Getirana Gonçalves Vicente</t>
-        </is>
-      </c>
-      <c r="B303" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C303" t="inlineStr">
-        <is>
-          <t>GETIRANA, Y.. Moradia para trabalhadoras doméstica. 2023. (Apresentação de Trabalho/Comunicação).</t>
-        </is>
-      </c>
-    </row>
-    <row r="304">
-      <c r="A304" t="inlineStr">
-        <is>
-          <t>Yasmin Getirana Gonçalves Vicente</t>
-        </is>
-      </c>
-      <c r="B304" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C304" t="inlineStr">
         <is>
           <t>GETIRANA, Y.. Na casa e na causa: A criação da Associação Profissional de Empregadas Domésticas do Rio de Janeiro na década de 1960. 2021. (Apresentação de Trabalho/Seminário).</t>
         </is>
@@ -15175,7 +15007,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C57"/>
+  <dimension ref="A1:C52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15907,23 +15739,22 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Rebecca Hodesh Muniz de Souza Rozas</t>
+          <t>Rodrigo Franco da Costa</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>32º Simpósio Nacional de História da ANPUH.
-						2023. (Simpósio).</t>
+          <t>COSTA, Rodrigo Franco da.. Uma nova História Moderna lusófona é possível, 2024. (Prefácio, Pósfacio/Prefácio)&gt;.</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Rodrigo Franco da Costa</t>
+          <t>Thiago Groh de Mello Cesar</t>
         </is>
       </c>
       <c r="B48" t="n">
@@ -15931,51 +15762,36 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>COSTA, Rodrigo Franco da.. Uma nova História Moderna lusófona é possível, 2024. (Prefácio, Pósfacio/Prefácio)&gt;.</t>
+          <t>GROH, Thiago. Prefácio.
+						São Paulo, araguaína-To, 2024. (Prefácio, Pósfacio/Prefácio)&gt;.</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Thiago Groh de Mello Cesar</t>
+          <t>Thompson Clímaco Alves</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>2024</v>
+        <v>2021</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>GROH, Thiago. Prefácio.
-						São Paulo, araguaína-To, 2024. (Prefácio, Pósfacio/Prefácio)&gt;.</t>
+          <t>CLÍMACO,Thompson. Classe trabalhadora negra entre o rural e o urbano (1920-1930) 2021 (Artigo).</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Thompson Clímaco Alves</t>
+          <t>Vanessa de Mendonça Rodrigues dos Santos</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>2021</v>
+        <v>2023</v>
       </c>
       <c r="C50" t="inlineStr">
-        <is>
-          <t>CLÍMACO,Thompson. Classe trabalhadora negra entre o rural e o urbano (1920-1930) 2021 (Artigo).</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>Vanessa de Mendonça Rodrigues dos Santos</t>
-        </is>
-      </c>
-      <c r="B51" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C51" t="inlineStr">
         <is>
           <t>GAIA, DEIVID ; PAREDES, Gabriel ;MENDONÇA, Vanessa de. O Sensível e o Invisível: religiões, crenças e rituais nos mundos antigos.
 						Imperatriz (MA):
@@ -15983,16 +15799,16 @@
         </is>
       </c>
     </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
+    <row r="51">
+      <c r="A51" t="inlineStr">
         <is>
           <t>Vinícius Patrocínio Pereira Costa</t>
         </is>
       </c>
-      <c r="B52" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C52" t="inlineStr">
+      <c r="B51" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C51" t="inlineStr">
         <is>
           <t>COSTA, V. P. P.. A fábrica como instituição da modernidade.
 						Assis-SP (UNESP):
@@ -16000,78 +15816,16 @@
         </is>
       </c>
     </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>Vinícius Patrocínio Pereira Costa</t>
-        </is>
-      </c>
-      <c r="B53" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>20º Encontro de História da ANPUH-Rio.
-						2022. (Simpósio).</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>Vinícius Patrocínio Pereira Costa</t>
-        </is>
-      </c>
-      <c r="B54" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>31° Simpósio Nacional de História ? História, Verdade e Tecnologia, promovido pela Associação Nacional de História - ANPUH-Brasil.Murray Rothbard e a redefinição do libertarianismo estadunidense na década de 1970.
-						2021. (Simpósio).</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>Vinícius Patrocínio Pereira Costa</t>
-        </is>
-      </c>
-      <c r="B55" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>XXXVII Semana de História da Universidade Federal de Juiz de Fora,.Esquerda e direita dentro do libertarianismo estadunidense: o surgimento do movimento libertário independente. 2021. (Seminário).</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>Vinícius Patrocínio Pereira Costa</t>
-        </is>
-      </c>
-      <c r="B56" t="n">
-        <v>2024</v>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>COSTA, V. P. P.. 1ª Semana Acadêmica da UnDF. 2024. (Outro).</t>
-        </is>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="inlineStr">
+    <row r="52">
+      <c r="A52" t="inlineStr">
         <is>
           <t>Willian Vidal Reis</t>
         </is>
       </c>
-      <c r="B57" t="n">
+      <c r="B52" t="n">
         <v>2023</v>
       </c>
-      <c r="C57" t="inlineStr">
+      <c r="C52" t="inlineStr">
         <is>
           <t>REIS, W. V.;NEVES, Leandro César S.. AMARAL, Clinio. LISBÔA, João. A historiografia medieval no Brasil: de 1990 a 2017. Curitiba: Appris, 2019. Signum, vol. 24, n. 1, 264-271. 2023 (Resenha).</t>
         </is>
